--- a/unilever.xlsx
+++ b/unilever.xlsx
@@ -15,36 +15,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>ageRange</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>18 - 29</t>
+  </si>
+  <si>
+    <t>Above 40</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Bono</t>
+  </si>
+  <si>
+    <t>Kumasi</t>
+  </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Pepsodent</t>
-  </si>
-  <si>
-    <t>Geisha</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Sheet2_Column1</t>
-  </si>
-  <si>
     <t>Sheet2_Column2</t>
+  </si>
+  <si>
+    <t>Accra</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Mallam</t>
+  </si>
+  <si>
+    <t>Dansoman</t>
   </si>
   <si>
     <t>E</t>
@@ -414,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,64 +445,27 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -505,42 +483,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>5</v>
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>6</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>7</v>
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/unilever.xlsx
+++ b/unilever.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ageRange</t>
   </si>
@@ -29,16 +29,7 @@
     <t>18 - 29</t>
   </si>
   <si>
-    <t>Above 40</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Male</t>
-  </si>
-  <si>
-    <t>Bono</t>
   </si>
   <si>
     <t>Kumasi</t>
@@ -429,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,21 +442,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -483,42 +463,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
